--- a/Items/BaoCaoPO.xlsx
+++ b/Items/BaoCaoPO.xlsx
@@ -16,37 +16,46 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
+    <x:t>PONumber</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vendor</x:t>
+  </x:si>
+  <x:si>
     <x:t>Total</x:t>
   </x:si>
   <x:si>
-    <x:t>Vendor</x:t>
-  </x:si>
-  <x:si>
     <x:t>text</x:t>
   </x:si>
   <x:si>
-    <x:t>PONumber</x:t>
-  </x:si>
-  <x:si>
     <x:t/>
   </x:si>
   <x:si>
-    <x:t># PO-00014</x:t>
+    <x:t># PO-00021</x:t>
   </x:si>
   <x:si>
     <x:t>Saigon Paper</x:t>
   </x:si>
   <x:si>
-    <x:t>VND532,125.00</x:t>
-  </x:si>
-  <x:si>
-    <x:t># PO-00015</x:t>
+    <x:t>VND17,402,000.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t># PO-00022</x:t>
   </x:si>
   <x:si>
     <x:t>NNippon Print</x:t>
   </x:si>
   <x:si>
-    <x:t>VND1,270,000.00</x:t>
+    <x:t>VND5,095,500.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green Paper</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VND4,500,000.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t># PO-00020</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -314,18 +323,18 @@
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B1" s="1" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="C1" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
       <x:c r="A2" s="0" t="s">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
         <x:v>4</x:v>
@@ -336,7 +345,7 @@
     </x:row>
     <x:row r="3" spans="1:3">
       <x:c r="A3" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
         <x:v>6</x:v>
@@ -347,13 +356,24 @@
     </x:row>
     <x:row r="4" spans="1:3">
       <x:c r="A4" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
         <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:3">
+      <x:c r="A5" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>12</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Items/BaoCaoPO.xlsx
+++ b/Items/BaoCaoPO.xlsx
@@ -1,119 +1,75 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:workbookPr codeName="ThisWorkbook"/>
-  <x:bookViews>
-    <x:workbookView firstSheet="0" activeTab="0"/>
-  </x:bookViews>
-  <x:sheets>
-    <x:sheet name="Trang tính1" sheetId="1" r:id="rId4"/>
-  </x:sheets>
-  <x:definedNames/>
-  <x:calcPr/>
-</x:workbook>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <workbookPr/>
+  <sheets>
+    <sheet state="visible" name="Trang tính1" sheetId="1" r:id="rId4"/>
+  </sheets>
+  <definedNames/>
+  <calcPr/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:si>
-    <x:t>PONumber</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Vendor</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Total</x:t>
-  </x:si>
-  <x:si>
-    <x:t>text</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t># PO-00021</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Saigon Paper</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VND17,402,000.00</x:t>
-  </x:si>
-  <x:si>
-    <x:t># PO-00022</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NNippon Print</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VND5,095,500.00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Green Paper</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VND4,500,000.00</x:t>
-  </x:si>
-  <x:si>
-    <x:t># PO-00020</x:t>
-  </x:si>
-</x:sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>PO Number</t>
+  </si>
+  <si>
+    <t>Vendor</t>
+  </si>
+  <si>
+    <t>Total Amount</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<x:styleSheet xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:numFmts count="1">
-    <x:numFmt numFmtId="0" formatCode=""/>
-  </x:numFmts>
-  <x:fonts count="3">
-    <x:font>
-      <x:sz val="10.0"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-      <x:scheme val="minor"/>
-    </x:font>
-    <x:font>
-      <x:color theme="1"/>
-      <x:name val="Arial"/>
-      <x:scheme val="minor"/>
-    </x:font>
-    <x:font>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="11"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-    </x:font>
-  </x:fonts>
-  <x:fills count="2">
-    <x:fill>
-      <x:patternFill patternType="none"/>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="gray125"/>
-    </x:fill>
-  </x:fills>
-  <x:borders count="1">
-    <x:border/>
-  </x:borders>
-  <x:cellStyleXfs count="2">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="1" applyAlignment="1"/>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-  </x:cellStyleXfs>
-  <x:cellXfs count="2">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <x:alignment vertical="bottom" wrapText="0" shrinkToFit="0" readingOrder="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <x:alignment readingOrder="0"/>
-    </x:xf>
-  </x:cellXfs>
-  <x:cellStyles count="1">
-    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </x:cellStyles>
-</x:styleSheet>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="2">
+    <font>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+  </fonts>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="lightGray"/>
+    </fill>
+  </fills>
+  <borders count="1">
+    <border/>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  </cellStyleXfs>
+  <cellXfs count="2">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+</styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -311,76 +267,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="0" summaryRight="0"/>
-  </x:sheetPr>
-  <x:dimension ref="A1:C4"/>
-  <x:sheetViews>
-    <x:sheetView workbookViewId="0"/>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="12.567768" defaultRowHeight="15.75" customHeight="1"/>
-  <x:sheetData>
-    <x:row r="1" spans="1:3">
-      <x:c r="A1" s="1" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B1" s="1" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C1" s="1" t="s">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:3">
-      <x:c r="A2" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B2" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C2" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:3">
-      <x:c r="A3" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="B3" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="C3" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:3">
-      <x:c r="A4" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B4" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="C4" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:3">
-      <x:c r="A5" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C5" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
-  <x:tableParts count="0"/>
-</x:worksheet>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>